--- a/Data/Extras/Plantilla Log.xlsx
+++ b/Data/Extras/Plantilla Log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Beecker\Documents\UiPath\LIV-CP\Data\Extras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94f2d34ded19b0dc/Documentos/UiPath/LIV-CP/Data/Extras/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ED71086-EC00-4D32-9860-1724F0588E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{1ED71086-EC00-4D32-9860-1724F0588E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CC6180A-707E-43E9-88EB-28E512865E3C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5448" yWindow="2280" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Texto breve (TXZ01)</t>
   </si>
@@ -40,6 +40,12 @@
   </si>
   <si>
     <t xml:space="preserve">Status </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pedido </t>
+  </si>
+  <si>
+    <t>Número contrarecibo</t>
   </si>
 </sst>
 </file>
@@ -372,10 +378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -384,9 +390,10 @@
     <col min="2" max="2" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -401,6 +408,12 @@
       </c>
       <c r="E1" s="1" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Extras/Plantilla Log.xlsx
+++ b/Data/Extras/Plantilla Log.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/94f2d34ded19b0dc/Documentos/UiPath/LIV-CP/Data/Extras/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luzpc\OneDrive\Documentos\UiPath\LIV-CP\Data\Extras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{1ED71086-EC00-4D32-9860-1724F0588E85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ACC91C20-335A-4D5D-84D7-42B86937B180}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="21600" windowHeight="11325"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Texto breve (TXZ01)</t>
   </si>
@@ -36,9 +35,6 @@
     <t>No. Servicio (SRVPOS)</t>
   </si>
   <si>
-    <t xml:space="preserve">Posición </t>
-  </si>
-  <si>
     <t xml:space="preserve">Status </t>
   </si>
   <si>
@@ -46,13 +42,19 @@
   </si>
   <si>
     <t xml:space="preserve">Centro </t>
+  </si>
+  <si>
+    <t>Proveedor Fijo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precio Bruto </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,22 +379,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -404,13 +409,16 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
